--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt2</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt2</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H2">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.005371358402222221</v>
+        <v>1.928290430357223</v>
       </c>
       <c r="R2">
-        <v>0.04834222561999998</v>
+        <v>17.354613873215</v>
       </c>
       <c r="S2">
-        <v>0.000139920695398762</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="T2">
-        <v>0.000139920695398762</v>
+        <v>0.0488470045579656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H3">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
-        <v>0.1820099774292222</v>
+        <v>30.06628298937612</v>
       </c>
       <c r="R3">
-        <v>1.638089796863</v>
+        <v>270.596546904385</v>
       </c>
       <c r="S3">
-        <v>0.004741251784813622</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="T3">
-        <v>0.004741251784813622</v>
+        <v>0.7616320856558244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H4">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.004542822997444444</v>
+        <v>1.308758819321667</v>
       </c>
       <c r="R4">
-        <v>0.04088540697699999</v>
+        <v>11.778829373895</v>
       </c>
       <c r="S4">
-        <v>0.000118337840314834</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="T4">
-        <v>0.000118337840314834</v>
+        <v>0.03315317392351528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H5">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.03218851610555556</v>
+        <v>4.921917492288888</v>
       </c>
       <c r="R5">
-        <v>0.28969664495</v>
+        <v>44.2972574306</v>
       </c>
       <c r="S5">
-        <v>0.0008384917222206342</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="T5">
-        <v>0.0008384917222206341</v>
+        <v>0.1246808688124989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H6">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.002602436452444444</v>
+        <v>0.4791627558527778</v>
       </c>
       <c r="R6">
-        <v>0.023421928072</v>
+        <v>4.312464802675001</v>
       </c>
       <c r="S6">
-        <v>6.779192354888575E-05</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="T6">
-        <v>6.779192354888575E-05</v>
+        <v>0.01213803945228936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H7">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I7">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.004276655967444444</v>
+        <v>0.7717119508733333</v>
       </c>
       <c r="R7">
-        <v>0.038489903707</v>
+        <v>6.94540755786</v>
       </c>
       <c r="S7">
-        <v>0.0001114043473059863</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="T7">
-        <v>0.0001114043473059863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H8">
-        <v>5.303765</v>
-      </c>
-      <c r="I8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5018866666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.50566</v>
-      </c>
-      <c r="O8">
-        <v>0.02325346250969518</v>
-      </c>
-      <c r="P8">
-        <v>0.02325346250969518</v>
-      </c>
-      <c r="Q8">
-        <v>0.887296312211111</v>
-      </c>
-      <c r="R8">
-        <v>7.9856668099</v>
-      </c>
-      <c r="S8">
-        <v>0.02311354181429642</v>
-      </c>
-      <c r="T8">
-        <v>0.02311354181429642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.303765</v>
-      </c>
-      <c r="I9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>17.00656966666667</v>
-      </c>
-      <c r="N9">
-        <v>51.019709</v>
-      </c>
-      <c r="O9">
-        <v>0.7879500620904175</v>
-      </c>
-      <c r="P9">
-        <v>0.7879500620904175</v>
-      </c>
-      <c r="Q9">
-        <v>30.06628298937612</v>
-      </c>
-      <c r="R9">
-        <v>270.596546904385</v>
-      </c>
-      <c r="S9">
-        <v>0.783208810305604</v>
-      </c>
-      <c r="T9">
-        <v>0.783208810305604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H10">
-        <v>5.303765</v>
-      </c>
-      <c r="I10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4244703333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.273411</v>
-      </c>
-      <c r="O10">
-        <v>0.01966660132296365</v>
-      </c>
-      <c r="P10">
-        <v>0.01966660132296365</v>
-      </c>
-      <c r="Q10">
-        <v>0.7504302991572223</v>
-      </c>
-      <c r="R10">
-        <v>6.753872692414999</v>
-      </c>
-      <c r="S10">
-        <v>0.01954826348264882</v>
-      </c>
-      <c r="T10">
-        <v>0.01954826348264882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H11">
-        <v>5.303765</v>
-      </c>
-      <c r="I11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.007616666666667</v>
-      </c>
-      <c r="N11">
-        <v>9.02285</v>
-      </c>
-      <c r="O11">
-        <v>0.139349191853143</v>
-      </c>
-      <c r="P11">
-        <v>0.1393491918531429</v>
-      </c>
-      <c r="Q11">
-        <v>5.317230670027778</v>
-      </c>
-      <c r="R11">
-        <v>47.85507603025</v>
-      </c>
-      <c r="S11">
-        <v>0.1385107001309223</v>
-      </c>
-      <c r="T11">
-        <v>0.1385107001309223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H12">
-        <v>5.303765</v>
-      </c>
-      <c r="I12">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J12">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2431653333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.729496</v>
-      </c>
-      <c r="O12">
-        <v>0.01126636019218987</v>
-      </c>
-      <c r="P12">
-        <v>0.01126636019218987</v>
-      </c>
-      <c r="Q12">
-        <v>0.4298972613822223</v>
-      </c>
-      <c r="R12">
-        <v>3.86907535244</v>
-      </c>
-      <c r="S12">
-        <v>0.01119856826864098</v>
-      </c>
-      <c r="T12">
-        <v>0.01119856826864098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H13">
-        <v>5.303765</v>
-      </c>
-      <c r="I13">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J13">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3996003333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.198801</v>
-      </c>
-      <c r="O13">
-        <v>0.01851432203159086</v>
-      </c>
-      <c r="P13">
-        <v>0.01851432203159086</v>
-      </c>
-      <c r="Q13">
-        <v>0.7064620873072223</v>
-      </c>
-      <c r="R13">
-        <v>6.358158785765</v>
-      </c>
-      <c r="S13">
-        <v>0.01840291768428488</v>
-      </c>
-      <c r="T13">
-        <v>0.01840291768428488</v>
+        <v>0.01954882759790648</v>
       </c>
     </row>
   </sheetData>
